--- a/src/demos/zdemo_excel15_04.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_04.w3mi.data.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:B3"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -360,28 +360,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" location="Sheet2!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.39" footer="0.39"/>
-  <pageSetup blackAndWhite="1" fitToHeight="0" fitToWidth="2" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="80"/>
+  <pageSetup fitToHeight="0" fitToWidth="2" orientation="landscape" paperSize="9" scale="80"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,Standard"&amp;8print date &amp;D</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"-,Standard"&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -392,41 +388,37 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B2:B4"/>
+  <dimension ref="B1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
+    <sheetView tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" location="Sheet1!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,Standard"&amp;8print date &amp;D</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"-,Standard"&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -445,15 +437,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
   </sheetData>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,Standard"&amp;8print date &amp;D</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"-,Standard"&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -464,23 +455,23 @@
     <tabColor rgb="FF00FFFF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B2:B3"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
+    <sheetView tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="0.0000000000000000E+00">
       <c r="B3">
         <v>0</v>
       </c>
@@ -489,8 +480,7 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,Standard"&amp;8print date &amp;D</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"-,Standard"&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/demos/zdemo_excel15_04.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_04.w3mi.data.xlsx
@@ -350,6 +350,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:B3"/>
   <sheetViews>
@@ -376,11 +377,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" location="Sheet2!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.39" footer="0.39"/>
-  <pageSetup orientation="landscape" paperSize="9" scale="80"/>
+  <pageSetup fitToHeight="0" fitToWidth="2" orientation="landscape" paperSize="9" scale="80"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"-,Standard"&amp;L&amp;"Arial,Standard"&amp;8&amp;Z&amp;F&amp;R&amp;"Arial,Standard"&amp;8page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -423,9 +421,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" location="Sheet1!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <headerFooter>

--- a/src/demos/zdemo_excel15_04.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_04.w3mi.data.xlsx
@@ -377,6 +377,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Sheet2!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.39" footer="0.39"/>
   <pageSetup fitToHeight="0" fitToWidth="2" orientation="landscape" paperSize="9" scale="80"/>
   <headerFooter>
@@ -421,6 +424,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Sheet1!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <headerFooter>

--- a/src/demos/zdemo_excel15_04.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_04.w3mi.data.xlsx
@@ -201,7 +201,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -339,9 +339,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 

--- a/src/demos/zdemo_excel15_04.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_04.w3mi.data.xlsx
@@ -201,7 +201,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -339,9 +339,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
@@ -377,6 +377,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Sheet2!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.39" footer="0.39"/>
   <pageSetup fitToHeight="0" fitToWidth="2" orientation="landscape" paperSize="9" scale="80"/>
   <headerFooter>
@@ -421,6 +424,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Sheet1!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <headerFooter>
